--- a/datasets_ATRIUM/gapminder_geonames.xlsx
+++ b/datasets_ATRIUM/gapminder_geonames.xlsx
@@ -22,11 +22,11 @@
     <definedName name="used_sources">ABOUT!$C$83:$C$84</definedName>
     <definedName name="countries_etc_properties">'list-of-countries-etc'!$A$1:$R$204</definedName>
     <definedName name="gapmio">ABOUT!$E$4</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_3E2C93EC_31F4_42CF_BA9B_3991C43C20E3_.wvu.FilterData">'list-of-countries-etc'!$A$1:$Z$198</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_24A43CE9_A473_4733_95BD_08BE39690369_.wvu.FilterData">'list-of-countries-etc'!$A$1:$Z$198</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3E2C93EC-31F4-42CF-BA9B-3991C43C20E3}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{24A43CE9-A473-4733-95BD-08BE39690369}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -27607,7 +27607,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3E2C93EC-31F4-42CF-BA9B-3991C43C20E3}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{24A43CE9-A473-4733-95BD-08BE39690369}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$Z$198"/>
     </customSheetView>
   </customSheetViews>
